--- a/src/main/resources/CompilerDictionary/LocatorDictionary/ProductsCapellaGetstartedPageLocators.xlsx
+++ b/src/main/resources/CompilerDictionary/LocatorDictionary/ProductsCapellaGetstartedPageLocators.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11018"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Abhinav\IdeaProjects\CouchBase\src\main\resources\CompilerDictionary\LocatorDictionary\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gurcharan/Desktop/Mobile-Web-Automation/src/main/resources/CompilerDictionary/LocatorDictionary/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7694E63E-F317-4CC3-9A53-C4CD749D7E34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FD5D59C-423D-6D44-9BF5-220175DDF26B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{82921101-2893-4AFE-8A3A-35797B738338}"/>
+    <workbookView xWindow="0" yWindow="680" windowWidth="19420" windowHeight="10420" xr2:uid="{82921101-2893-4AFE-8A3A-35797B738338}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="33">
   <si>
     <t>Sno</t>
   </si>
@@ -126,6 +126,15 @@
   </si>
   <si>
     <t>div.logo img[src *= 'couchbase']</t>
+  </si>
+  <si>
+    <t>Locator Type</t>
+  </si>
+  <si>
+    <t>CSS</t>
+  </si>
+  <si>
+    <t>Xpath</t>
   </si>
 </sst>
 </file>
@@ -521,21 +530,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08EEB604-B22A-418B-82E8-7B4A8287AF95}">
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.7265625" style="3"/>
-    <col min="2" max="2" width="84.36328125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="61.7265625" style="3" customWidth="1"/>
-    <col min="4" max="16384" width="8.7265625" style="3"/>
+    <col min="1" max="1" width="8.6640625" style="3"/>
+    <col min="2" max="2" width="84.33203125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="61.6640625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="10.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.6640625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -545,8 +555,11 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D1" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -556,8 +569,11 @@
       <c r="C2" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D2" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -567,8 +583,11 @@
       <c r="C3" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D3" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -578,8 +597,11 @@
       <c r="C4" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D4" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -589,8 +611,11 @@
       <c r="C5" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D5" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -600,8 +625,11 @@
       <c r="C6" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D6" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -611,8 +639,11 @@
       <c r="C7" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D7" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -622,8 +653,11 @@
       <c r="C8" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D8" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -633,8 +667,11 @@
       <c r="C9" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D9" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -644,8 +681,11 @@
       <c r="C10" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D10" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -655,8 +695,11 @@
       <c r="C11" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D11" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>11</v>
       </c>
@@ -666,8 +709,11 @@
       <c r="C12" s="3" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D12" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>12</v>
       </c>
@@ -677,8 +723,11 @@
       <c r="C13" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D13" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>26</v>
       </c>
@@ -687,6 +736,9 @@
       </c>
       <c r="C14" s="2" t="s">
         <v>27</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -695,23 +747,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="538fb481-c731-4aaa-8000-78e7278c367d" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010029C582D7CAE7254D96CFAD30E11BEF03" ma:contentTypeVersion="15" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="582559788840a9edcb403f816335bebc">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="538fb481-c731-4aaa-8000-78e7278c367d" xmlns:ns4="18a05938-05b3-4043-944c-3e784ce94118" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="45cc7787e06b96766817f6d0cea55fd1" ns3:_="" ns4:_="">
     <xsd:import namespace="538fb481-c731-4aaa-8000-78e7278c367d"/>
@@ -944,32 +979,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{45CAFAE4-FE46-40AF-872A-0690604350B4}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="18a05938-05b3-4043-944c-3e784ce94118"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="538fb481-c731-4aaa-8000-78e7278c367d"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{796833A7-D847-4C9E-9CC2-4F3ADB5D1568}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="538fb481-c731-4aaa-8000-78e7278c367d" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CCC067D9-FDD6-4969-99BE-6330A9C20ADB}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -986,4 +1013,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{796833A7-D847-4C9E-9CC2-4F3ADB5D1568}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{45CAFAE4-FE46-40AF-872A-0690604350B4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="18a05938-05b3-4043-944c-3e784ce94118"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="538fb481-c731-4aaa-8000-78e7278c367d"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>